--- a/DotEater/project/data/stage00.xlsx
+++ b/DotEater/project/data/stage00.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\hanai871DX3D\DotEater\project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\sdt\2025\2年\git2年\DotEater\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31076172-3594-4F01-9521-D692D7FF8E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA79FCA1-1044-4BD7-BF2E-829D532FF401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9975" yWindow="1950" windowWidth="15330" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="stage00" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -68,11 +68,11 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -100,7 +100,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -380,15 +387,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>1</v>
       </c>
@@ -419,11 +426,8 @@
       <c r="J1">
         <v>1</v>
       </c>
-      <c r="K1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -437,28 +441,25 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
@@ -466,205 +467,91 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>3</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
         <v>1</v>
       </c>
     </row>
@@ -682,6 +569,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>